--- a/Ludo2/Gantt.xlsx
+++ b/Ludo2/Gantt.xlsx
@@ -47,18 +47,6 @@
     <t>AKTIVITET</t>
   </si>
   <si>
-    <t>Aktivitet 07</t>
-  </si>
-  <si>
-    <t>Aktivitet 09</t>
-  </si>
-  <si>
-    <t>Aktivitet 10</t>
-  </si>
-  <si>
-    <t>Aktivitet 11</t>
-  </si>
-  <si>
     <t>Aktivitet 12</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     </r>
   </si>
   <si>
-    <t>Aktivitet 08</t>
-  </si>
-  <si>
     <t>Gantt Diag</t>
   </si>
   <si>
@@ -231,6 +216,21 @@
   </si>
   <si>
     <t>Token.cs</t>
+  </si>
+  <si>
+    <t>Optimize</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Sound/Music</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1087,14 +1087,14 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1102,21 +1102,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
       <c r="V2" s="22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
@@ -1126,7 +1126,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
@@ -1141,22 +1141,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1400,15 +1400,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -1443,12 +1443,12 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1480,18 +1480,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="8">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>

--- a/Ludo2/Gantt.xlsx
+++ b/Ludo2/Gantt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1051,7 +1051,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
